--- a/微信摇一摇教室.xlsx
+++ b/微信摇一摇教室.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="自己" sheetId="1" r:id="rId1"/>
-    <sheet name="黄宝辉" sheetId="2" r:id="rId2"/>
+    <sheet name="其他" sheetId="3" r:id="rId2"/>
+    <sheet name="黄宝辉" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>7A403</t>
   </si>
@@ -47,6 +48,15 @@
   </si>
   <si>
     <t>7B208</t>
+  </si>
+  <si>
+    <t>7A308</t>
+  </si>
+  <si>
+    <t>7A305</t>
+  </si>
+  <si>
+    <t>7A114</t>
   </si>
 </sst>
 </file>
@@ -364,15 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,7 +390,7 @@
         <v>21931</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -388,7 +398,7 @@
         <v>22047</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -396,7 +406,7 @@
         <v>21933</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -404,7 +414,7 @@
         <v>21935</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -412,7 +422,7 @@
         <v>21926</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -420,12 +430,28 @@
         <v>22103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>22104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>21920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>21917</v>
       </c>
     </row>
   </sheetData>
@@ -435,15 +461,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>21896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -451,7 +500,7 @@
         <v>21889</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -459,7 +508,7 @@
         <v>21926</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>

--- a/微信摇一摇教室.xlsx
+++ b/微信摇一摇教室.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="自己" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>7A403</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>7A114</t>
+  </si>
+  <si>
+    <t>7A104</t>
+  </si>
+  <si>
+    <t>7A215</t>
   </si>
 </sst>
 </file>
@@ -374,84 +380,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>21931</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="str">
+        <f>DEC2HEX(B1)</f>
+        <v>55AB</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>22047</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C9" si="0">DEC2HEX(B2)</f>
+        <v>561F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>21933</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>55AD</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>21935</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>55AF</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>21926</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>55A6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>22103</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>22104</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>21920</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>55A0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>21917</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>559D</v>
       </c>
     </row>
   </sheetData>
@@ -461,20 +503,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1">
         <v>21896</v>
+      </c>
+      <c r="C1" t="str">
+        <f>DEC2HEX(B1)</f>
+        <v>5588</v>
       </c>
     </row>
   </sheetData>
@@ -484,39 +530,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1">
         <v>21889</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="str">
+        <f>DEC2HEX(B1)</f>
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>21926</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C3" si="0">DEC2HEX(B2)</f>
+        <v>55A6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>21975</v>
       </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>55D7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>21896</v>
+      </c>
+      <c r="C4" t="str">
+        <f>DEC2HEX(B4)</f>
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>21888</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C6" si="1">DEC2HEX(B5)</f>
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>21911</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>5597</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/微信摇一摇教室.xlsx
+++ b/微信摇一摇教室.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="自己" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>7A403</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>7A215</t>
+  </si>
+  <si>
+    <t>7A213</t>
   </si>
 </sst>
 </file>
@@ -382,13 +385,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +403,7 @@
         <v>55AB</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -412,7 +415,7 @@
         <v>561F</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -424,7 +427,7 @@
         <v>55AD</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -436,7 +439,7 @@
         <v>55AF</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -448,7 +451,7 @@
         <v>55A6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -460,7 +463,7 @@
         <v>5657</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -472,7 +475,7 @@
         <v>5658</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -484,7 +487,7 @@
         <v>55A0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -509,9 +512,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -530,15 +533,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -550,7 +553,7 @@
         <v>5581</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -562,7 +565,7 @@
         <v>55A6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -574,7 +577,7 @@
         <v>55D7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -586,7 +589,7 @@
         <v>5588</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -594,11 +597,11 @@
         <v>21888</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C6" si="1">DEC2HEX(B5)</f>
+        <f t="shared" ref="C5:C7" si="1">DEC2HEX(B5)</f>
         <v>5580</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -608,6 +611,18 @@
       <c r="C6" t="str">
         <f t="shared" si="1"/>
         <v>5597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>21910</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>5596</v>
       </c>
     </row>
   </sheetData>

--- a/微信摇一摇教室.xlsx
+++ b/微信摇一摇教室.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="自己" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>7A403</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>7A213</t>
+  </si>
+  <si>
+    <t>7B206</t>
+  </si>
+  <si>
+    <t>55D5</t>
+  </si>
+  <si>
+    <t>7A302</t>
+  </si>
+  <si>
+    <t>559B</t>
   </si>
 </sst>
 </file>
@@ -386,12 +398,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C9"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +415,7 @@
         <v>55AB</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -415,7 +427,7 @@
         <v>561F</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -427,7 +439,7 @@
         <v>55AD</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -439,7 +451,7 @@
         <v>55AF</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -451,7 +463,7 @@
         <v>55A6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -463,7 +475,7 @@
         <v>5657</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -475,7 +487,7 @@
         <v>5658</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -487,7 +499,7 @@
         <v>55A0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -506,15 +518,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -524,6 +536,28 @@
       <c r="C1" t="str">
         <f>DEC2HEX(B1)</f>
         <v>5588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>21973</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>21915</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -535,13 +569,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -553,7 +587,7 @@
         <v>5581</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -565,7 +599,7 @@
         <v>55A6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -577,7 +611,7 @@
         <v>55D7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -589,7 +623,7 @@
         <v>5588</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -601,7 +635,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -613,7 +647,7 @@
         <v>5597</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
